--- a/AoC_2022/Day01.xlsx
+++ b/AoC_2022/Day01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27920"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AoC_2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Advent of Code 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B53E73-9742-42D1-880C-E73965F00131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212F9A5A-7248-4B98-850E-139355A38327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="3195" windowWidth="30195" windowHeight="17250" activeTab="2" xr2:uid="{DBAE6F42-B67F-4F82-8512-C2B2233E0C89}"/>
+    <workbookView xWindow="3150" yWindow="3150" windowWidth="28995" windowHeight="17520" activeTab="2" xr2:uid="{DBAE6F42-B67F-4F82-8512-C2B2233E0C89}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -42,8 +42,9 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
+  <metadataTypes count="2">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -54,12 +55,73 @@
       </extLst>
     </bk>
   </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="2">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
+  <valueMetadata count="2">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+  </valueMetadata>
 </metadata>
+</file>
+
+<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
+<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
+  <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
+    <initialization>
+      <code xml:space="preserve">import numpy as np
+import pandas as pd
+import matplotlib.pyplot as plt
+import seaborn as sns
+import statsmodels as sm
+import excel
+import warnings
+warnings.simplefilter('ignore')
+excel.set_xl_scalar_conversion(excel.convert_to_scalar)
+excel.set_xl_array_conversion(excel.convert_to_dataframe)
+</code>
+    </initialization>
+  </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code>elfTots = []
+currTot = 0
+for i in xl(%P2%)[0].fillna("").values:
+  if i == "":
+    elfTots = elfTots + [currTot]
+    currTot = 0
+  else:
+    currTot += i
+elfTots = sorted(elfTots + [currTot])
+elfTots[-1]</code>
+    </pythonScript>
+    <pythonScript>
+      <code>sum(elfTots[-3:])</code>
+    </pythonScript>
+  </pythonScripts>
+</python>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -853,7 +915,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -863,6 +925,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,7 +947,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -892,6 +960,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -909,6 +978,101 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <rv s="0">
+    <fb>69289</fb>
+    <v>&lt;class 'float'&gt;</v>
+    <v>float</v>
+    <v>69289.0</v>
+    <v>69289</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>205615</fb>
+    <v>&lt;class 'float'&gt;</v>
+    <v>float</v>
+    <v>205615.0</v>
+    <v>205615</v>
+    <v>0</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="basicValue"/>
+    <k n="provider" t="spb"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbData count="1">
+    <spb s="0">
+      <v>https://www.anaconda.com/excel</v>
+      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
+      <v>Python proporcionado por Anaconda</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
+  <s>
+    <k n="url" t="s"/>
+    <k n="logoUrl" t="s"/>
+    <k n="description" t="s"/>
+  </s>
+</spbStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1231,7 +1395,7 @@
   <dimension ref="A2:E2249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -29877,11 +30041,11 @@
         <v>2708</v>
       </c>
       <c r="B2243">
-        <f t="shared" ref="B2243:B2306" si="70">IF(ISBLANK(A2243),0,A2243+B2242)</f>
+        <f t="shared" ref="B2243:B2249" si="70">IF(ISBLANK(A2243),0,A2243+B2242)</f>
         <v>8990</v>
       </c>
       <c r="C2243" t="str">
-        <f t="shared" ref="C2243:C2306" si="71">IF(B2244=0,B2243,"")</f>
+        <f t="shared" ref="C2243:C2249" si="71">IF(B2244=0,B2243,"")</f>
         <v/>
       </c>
     </row>
@@ -41242,18 +41406,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0FB1C5-DD2B-4939-B847-780293038DD2}">
-  <dimension ref="A1:D2248"/>
+  <dimension ref="A1:F2248"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="2">
         <v>2159</v>
       </c>
@@ -41269,8 +41434,12 @@
 _xlfn.VSTACK(MAX(_xlpm.sums),SUM(LARGE(_xlpm.sums,{3,2,1}))))</f>
         <v>69289</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="F1" s="6" cm="1" vm="1">
+        <f t="array" ref="F1">_xlfn._xlws.PY(0,1,A1:A2248)</f>
+        <v>69289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>2527</v>
       </c>
@@ -41281,18 +41450,22 @@
         <f ca="1"/>
         <v>205615</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F2" s="6" cm="1" vm="2">
+        <f t="array" ref="F2">_xlfn._xlws.PY(1,1)</f>
+        <v>205615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>2441</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>3299</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>1672</v>
       </c>
@@ -41306,22 +41479,22 @@
 APILARV(MAX(sums);SUMA(K.ESIMO.MAYOR(sums;{3\2\1}))))</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>3025</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>2820</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>6821</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>3201</v>
       </c>
@@ -41329,7 +41502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>1204</v>
       </c>
@@ -41337,7 +41510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>1208</v>
       </c>
@@ -41345,7 +41518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>4861</v>
       </c>
@@ -41353,7 +41526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>5621</v>
       </c>
@@ -41361,13 +41534,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="D14" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <v>5580</v>
       </c>
@@ -41375,7 +41548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <v>18071</v>
       </c>
